--- a/df_list_20241227.xlsx
+++ b/df_list_20241227.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="223">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -595,16 +595,107 @@
   </si>
   <si>
     <t>2025년 고성군 생태관광(독수리) 체험 프로그램 운영 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A098</t>
+  </si>
+  <si>
+    <t>충청도_청주시_상당구</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020</t>
+  </si>
+  <si>
+    <t>흥덕대교 보수보강공사 신기술·특정공법(표면보수)선정 기술제안서 제출안내 ...</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>전라도_전주시</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>전주시 건축위원회 심의 기준 변경 공고</t>
+  </si>
+  <si>
+    <t>남부권 청소년센터 건립심의위원회 위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>전주시 용역과제심의위원회 위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A127</t>
+  </si>
+  <si>
+    <t>전라도_정읍시</t>
+  </si>
+  <si>
+    <t>http://eminwon.jeongeup.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
+  </si>
+  <si>
+    <t>매죽·매대 및 원종산 농촌마을하수도 설치사업  제안서 공법선정위원회 평가...</t>
+  </si>
+  <si>
+    <t>A153</t>
+  </si>
+  <si>
+    <t>전라도_장흥군</t>
+  </si>
+  <si>
+    <t>https://www.jangheung.go.kr/www/organization/news/notification</t>
+  </si>
+  <si>
+    <t>문흥 빛의 거리 조성사업 제안서 평가 결과 공고새로운글</t>
+  </si>
+  <si>
+    <t>A160</t>
+  </si>
+  <si>
+    <t>경상도_구미시</t>
+  </si>
+  <si>
+    <t>https://www.gumi.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mid=0401040000</t>
+  </si>
+  <si>
+    <t>2025년 장애인 긴급돌보미 지원사업 수행기관 선정 심의 결과 공고</t>
+  </si>
+  <si>
+    <t>2025년 굿모닝 수요특강 위탁 용역 제안서 평가위원 명단 및 평가 결과 공개</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>청도군 청도읍 농촌중심지활성화사업 지역역량강화 용역 제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>청도군 풍각면 기초생활거점조성사업 지역역량강화 용역 제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>청도군 금천면 기초생활거점조성사업 지역역량강화 용역 제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>『운문면 마일1리 농어촌취약지역생활여건개조사업 기본계획 수립 및 휴먼케어, 주민역량강화 용역』제안서 평가결과 공고</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -626,6 +717,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -656,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -666,6 +761,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2010,18 +2114,246 @@
         <v>45653.64236111111</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45652.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45653.809641203705</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45653.0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45653.809641203705</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45653.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>45653.809641203705</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45652.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45653.809641203705</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45652.0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45653.809641203705</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45653.0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45653.809641203705</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45653.0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>45653.809641203705</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45652.0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45653.809641203705</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45652.0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>45653.809641203705</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45652.0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>45653.809641203705</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45652.0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>45653.809641203705</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45652.0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45653.809641203705</v>
+      </c>
+    </row>
     <row r="69" ht="15.75" customHeight="1"/>
     <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>
@@ -2955,9 +3287,23 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C57"/>
+    <hyperlink r:id="rId2" ref="C58"/>
+    <hyperlink r:id="rId3" ref="C59"/>
+    <hyperlink r:id="rId4" ref="C60"/>
+    <hyperlink r:id="rId5" ref="C61"/>
+    <hyperlink r:id="rId6" ref="C62"/>
+    <hyperlink r:id="rId7" ref="C63"/>
+    <hyperlink r:id="rId8" ref="C64"/>
+    <hyperlink r:id="rId9" ref="C65"/>
+    <hyperlink r:id="rId10" ref="C66"/>
+    <hyperlink r:id="rId11" ref="C67"/>
+    <hyperlink r:id="rId12" ref="C68"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>